--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3923.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3923.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.516930384500371</v>
+        <v>1.168506145477295</v>
       </c>
       <c r="B1">
-        <v>2.436977894604947</v>
+        <v>1.302209973335266</v>
       </c>
       <c r="C1">
-        <v>6.302144808472889</v>
+        <v>1.903980612754822</v>
       </c>
       <c r="D1">
-        <v>3.905791414821281</v>
+        <v>1.942407131195068</v>
       </c>
       <c r="E1">
-        <v>0.9980230481891524</v>
+        <v>0.9256572127342224</v>
       </c>
     </row>
   </sheetData>
